--- a/ExcelSheetCollager/resources/TestSheetExceFormat.xlsx
+++ b/ExcelSheetCollager/resources/TestSheetExceFormat.xlsx
@@ -9,7 +9,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t xml:space="preserve">Sr.No</t>
   </si>
@@ -54,6 +55,39 @@
   </si>
   <si>
     <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdfsdfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fdas</t>
   </si>
   <si>
     <t xml:space="preserve">J</t>
@@ -95,6 +129,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -188,7 +223,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.48469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -287,15 +322,120 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>324</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.48469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -311,7 +451,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -319,7 +459,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -327,7 +467,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -335,7 +475,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,7 +483,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -351,7 +491,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -359,7 +499,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -367,7 +507,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -375,13 +515,13 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
